--- a/20260127.xlsx
+++ b/20260127.xlsx
@@ -519,12 +519,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>4.22%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.68%</t>
+          <t>+0.17%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -545,12 +545,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5043.8$</t>
+          <t>5166.0$</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+1.36%</t>
+          <t>+1.70%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -571,12 +571,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>31.45</t>
+          <t>31.44</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+0.25%</t>
+          <t>+0.22%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -597,12 +597,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7927.04</t>
+          <t>8117.18</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-0.39%</t>
+          <t>+2.40%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -623,12 +623,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16.15</t>
+          <t>16.35</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+0.37%</t>
+          <t>+1.24%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -649,28 +649,28 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>222.79億</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-15.12億</t>
+          <t>37.41億</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-75.58億</t>
+          <t>187.04億</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.63億</t>
+          <t>8.01億</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>32.59億</t>
+          <t>160.28億</t>
         </is>
       </c>
     </row>
@@ -687,18 +687,18 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>-50.18億</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-66.38億</t>
+          <t>-58.82億</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-331.9億</t>
+          <t>-294.09億</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -717,13 +717,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>171.78%</t>
+          <t>168.65%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>171.78%</t>
+          <t>168.65%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -743,7 +743,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>225.76億</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -765,13 +765,13 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>8223口</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12945口</t>
+          <t>11778口</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -791,28 +791,28 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>-14.08億</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-29.53億</t>
+          <t>-27.73億</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-147.65億</t>
+          <t>-138.65億</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-24.72億</t>
+          <t>-25.54億</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-494.44億</t>
+          <t>-510.72億</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-15.12億</t>
+          <t>37.41億</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-75.58億</t>
+          <t>187.04億</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.63億</t>
+          <t>8.01億</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>32.59億</t>
+          <t>160.28億</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-66.38億</t>
+          <t>-58.82億</t>
         </is>
       </c>
     </row>
@@ -928,7 +928,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-331.9億</t>
+          <t>-294.09億</t>
         </is>
       </c>
     </row>
@@ -947,7 +947,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-29.53億</t>
+          <t>-27.73億</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-147.65億</t>
+          <t>-138.65億</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-24.72億</t>
+          <t>-25.54億</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-494.44億</t>
+          <t>-510.72億</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>171.78%</t>
+          <t>168.65%</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>12945口</t>
+          <t>11778口</t>
         </is>
       </c>
     </row>
